--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H2">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I2">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J2">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N2">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O2">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P2">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q2">
-        <v>78.77742929629733</v>
+        <v>203.775325317538</v>
       </c>
       <c r="R2">
-        <v>708.9968636666759</v>
+        <v>1833.977927857842</v>
       </c>
       <c r="S2">
-        <v>0.2061517184690982</v>
+        <v>0.2811925711577084</v>
       </c>
       <c r="T2">
-        <v>0.2061517184690982</v>
+        <v>0.2811925711577084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H3">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I3">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J3">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.626475</v>
       </c>
       <c r="O3">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P3">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q3">
-        <v>160.9187162723444</v>
+        <v>274.0813562306083</v>
       </c>
       <c r="R3">
-        <v>1448.2684464511</v>
+        <v>2466.732206075475</v>
       </c>
       <c r="S3">
-        <v>0.4211062761214557</v>
+        <v>0.3782088981812733</v>
       </c>
       <c r="T3">
-        <v>0.4211062761214557</v>
+        <v>0.3782088981812733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H4">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I4">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J4">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N4">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O4">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P4">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q4">
-        <v>81.41770435955776</v>
+        <v>162.6372109238586</v>
       </c>
       <c r="R4">
-        <v>732.75933923602</v>
+        <v>1463.734898314728</v>
       </c>
       <c r="S4">
-        <v>0.2130610229029233</v>
+        <v>0.2244254815166397</v>
       </c>
       <c r="T4">
-        <v>0.2130610229029232</v>
+        <v>0.2244254815166397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H5">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I5">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J5">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N5">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O5">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P5">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q5">
-        <v>29.26988445230044</v>
+        <v>62.102652184664</v>
       </c>
       <c r="R5">
-        <v>263.428960070704</v>
+        <v>558.9238696619759</v>
       </c>
       <c r="S5">
-        <v>0.07659601275561406</v>
+        <v>0.08569636395528603</v>
       </c>
       <c r="T5">
-        <v>0.07659601275561406</v>
+        <v>0.08569636395528603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.223964</v>
       </c>
       <c r="I6">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J6">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N6">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O6">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P6">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q6">
-        <v>0.1781847878893333</v>
+        <v>0.2706122670853333</v>
       </c>
       <c r="R6">
-        <v>1.603663091004</v>
+        <v>2.435510403768</v>
       </c>
       <c r="S6">
-        <v>0.0004662896537316221</v>
+        <v>0.0003734218510016645</v>
       </c>
       <c r="T6">
-        <v>0.0004662896537316221</v>
+        <v>0.0003734218510016645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.223964</v>
       </c>
       <c r="I7">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J7">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.626475</v>
       </c>
       <c r="O7">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P7">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q7">
         <v>0.363978205211111</v>
@@ -883,10 +883,10 @@
         <v>3.2758038469</v>
       </c>
       <c r="S7">
-        <v>0.0009524902393977379</v>
+        <v>0.000502258883450163</v>
       </c>
       <c r="T7">
-        <v>0.0009524902393977379</v>
+        <v>0.000502258883450163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.223964</v>
       </c>
       <c r="I8">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J8">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N8">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O8">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P8">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q8">
-        <v>0.1841567630644444</v>
+        <v>0.2159811267235555</v>
       </c>
       <c r="R8">
-        <v>1.65741086758</v>
+        <v>1.943830140512</v>
       </c>
       <c r="S8">
-        <v>0.0004819176445914585</v>
+        <v>0.0002980355361980054</v>
       </c>
       <c r="T8">
-        <v>0.0004819176445914584</v>
+        <v>0.0002980355361980055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.223964</v>
       </c>
       <c r="I9">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J9">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N9">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O9">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P9">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q9">
-        <v>0.0662048533351111</v>
+        <v>0.08247190612266665</v>
       </c>
       <c r="R9">
-        <v>0.595843680016</v>
+        <v>0.742247155104</v>
       </c>
       <c r="S9">
-        <v>0.0001732506938592023</v>
+        <v>0.0001138041973176715</v>
       </c>
       <c r="T9">
-        <v>0.0001732506938592023</v>
+        <v>0.0001138041973176715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H10">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I10">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J10">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N10">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O10">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P10">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q10">
-        <v>0.8110437477263334</v>
+        <v>1.689357165276667</v>
       </c>
       <c r="R10">
-        <v>7.299393729537</v>
+        <v>15.20421448749</v>
       </c>
       <c r="S10">
-        <v>0.002122410744307697</v>
+        <v>0.002331168821188773</v>
       </c>
       <c r="T10">
-        <v>0.002122410744307697</v>
+        <v>0.002331168821188773</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H11">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I11">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J11">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.626475</v>
       </c>
       <c r="O11">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P11">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q11">
-        <v>1.656719696119444</v>
+        <v>2.272214765430555</v>
       </c>
       <c r="R11">
-        <v>14.910477265075</v>
+        <v>20.449932888875</v>
       </c>
       <c r="S11">
-        <v>0.004335450082942454</v>
+        <v>0.003135462603817704</v>
       </c>
       <c r="T11">
-        <v>0.004335450082942453</v>
+        <v>0.003135462603817704</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H12">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I12">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J12">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N12">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O12">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P12">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q12">
-        <v>0.8382263887627777</v>
+        <v>1.348310141017778</v>
       </c>
       <c r="R12">
-        <v>7.544037498864999</v>
+        <v>12.13479126916</v>
       </c>
       <c r="S12">
-        <v>0.002193544674574891</v>
+        <v>0.001860553011901736</v>
       </c>
       <c r="T12">
-        <v>0.002193544674574891</v>
+        <v>0.001860553011901736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H13">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I13">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J13">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N13">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O13">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P13">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q13">
-        <v>0.3013446490164444</v>
+        <v>0.5148491864133333</v>
       </c>
       <c r="R13">
-        <v>2.712101841148</v>
+        <v>4.63364267772</v>
       </c>
       <c r="S13">
-        <v>0.0007885852305811042</v>
+        <v>0.000710447971364665</v>
       </c>
       <c r="T13">
-        <v>0.0007885852305811041</v>
+        <v>0.000710447971364665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H14">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I14">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J14">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N14">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O14">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P14">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q14">
-        <v>6.149077756908667</v>
+        <v>4.445649023774666</v>
       </c>
       <c r="R14">
-        <v>55.341699812178</v>
+        <v>40.01084121397199</v>
       </c>
       <c r="S14">
-        <v>0.01609144850130836</v>
+        <v>0.006134616531770865</v>
       </c>
       <c r="T14">
-        <v>0.01609144850130836</v>
+        <v>0.006134616531770867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H15">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I15">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J15">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.626475</v>
       </c>
       <c r="O15">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P15">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q15">
-        <v>12.56072593050555</v>
+        <v>5.979475247372221</v>
       </c>
       <c r="R15">
-        <v>113.04653337455</v>
+        <v>53.81527722635</v>
       </c>
       <c r="S15">
-        <v>0.03287001440544328</v>
+        <v>0.00825116591698436</v>
       </c>
       <c r="T15">
-        <v>0.03287001440544327</v>
+        <v>0.008251165916984361</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H16">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I16">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J16">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N16">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O16">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P16">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q16">
-        <v>6.355167963312222</v>
+        <v>3.548162452183111</v>
       </c>
       <c r="R16">
-        <v>57.19651166981</v>
+        <v>31.933462069648</v>
       </c>
       <c r="S16">
-        <v>0.01663076351309869</v>
+        <v>0.004896161599839879</v>
       </c>
       <c r="T16">
-        <v>0.01663076351309868</v>
+        <v>0.00489616159983988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H17">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I17">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J17">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N17">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O17">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P17">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q17">
-        <v>2.284700034523556</v>
+        <v>1.354857829957333</v>
       </c>
       <c r="R17">
-        <v>20.562300310712</v>
+        <v>12.193720469616</v>
       </c>
       <c r="S17">
-        <v>0.005978804367072391</v>
+        <v>0.001869588264257169</v>
       </c>
       <c r="T17">
-        <v>0.00597880436707239</v>
+        <v>0.001869588264257169</v>
       </c>
     </row>
   </sheetData>
